--- a/medicine/Mort/Cimetière_arménien_de_Tbilissi/Cimetière_arménien_de_Tbilissi.xlsx
+++ b/medicine/Mort/Cimetière_arménien_de_Tbilissi/Cimetière_arménien_de_Tbilissi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Tbilissi</t>
+          <t>Cimetière_arménien_de_Tbilissi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière arménien de Tbilissi ou Panthéon Khojivank de Tbilissi connu également sous la dénomination Khojivank (en géorgien : ხოჯივანქი et en arménien : Խոջիվանք) ou encore Khojavank (en arménien : Խոջավանք), est un cimetière arménien situé dans le quartier de Avlabari (en) à Tbilissi en Géorgie. De nombreuses personnalités arméniennes du monde des arts y sont inhumées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_de_Tbilissi</t>
+          <t>Cimetière_arménien_de_Tbilissi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnes inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreux artistes célèbres ainsi d'autres personnalités reposent au cimetière arménien de Tblissi, parmi eux :
 Raffi (1835-1888), écrivain ;
